--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Anders Westfall Reinholt Petersen</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Projekplanlægning (oprettelse og tidsregistreringer)</t>
+  </si>
+  <si>
+    <t>system analyst</t>
+  </si>
+  <si>
+    <t>domæne model + dataordbog + test cases</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,6 +442,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>42059</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Anders Westfall Reinholt Petersen</t>
-  </si>
-  <si>
     <t>Navn</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>domæne model + dataordbog + test cases</t>
+  </si>
+  <si>
+    <t>Lasse Meilby</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,24 +408,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,10 +436,10 @@
         <v>2.25</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,10 +450,10 @@
         <v>3.5</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Anders Westfall Reinholt Petersen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Navn</t>
   </si>
@@ -48,6 +45,15 @@
   </si>
   <si>
     <t>Projekplanlægning (oprettelse og tidsregistreringer)</t>
+  </si>
+  <si>
+    <t>system analyst</t>
+  </si>
+  <si>
+    <t>domæne model + dataordbog + test cases</t>
+  </si>
+  <si>
+    <t>Lasse Meilby</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,24 +408,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,10 +436,24 @@
         <v>2.25</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>42059</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meilby\Desktop\PTE Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meilby\Documents\GitHub\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Navn</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Lasse Meilby</t>
+  </si>
+  <si>
+    <t>oprette excecutable jar + tut</t>
+  </si>
+  <si>
+    <t>tool specialist</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +462,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>42060</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Navn</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>tool specialist</t>
+  </si>
+  <si>
+    <t>Fullydressed UC3</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +479,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>42061</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Lasse Meilby).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Navn</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Fullydressed UC3</t>
+  </si>
+  <si>
+    <t>implementer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gui </t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +499,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>42062</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
